--- a/aer_writer/aero_map_tables.xlsx
+++ b/aer_writer/aero_map_tables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nic\Documents\GitHub\Simulation\aero_map\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nic\Documents\GitHub\Simulation\aer_writer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B8B6B3-9E2C-4592-BECB-872F312E7419}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D9B08B-585C-4C63-AE89-68F65E17F692}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{7C7999EA-37B5-484A-9B26-A7F36B4739E3}"/>
   </bookViews>
@@ -415,7 +415,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="A1:C20"/>
+      <selection activeCell="C4" sqref="C4:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>-92.302949857549805</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -455,7 +455,7 @@
         <v>1.25</v>
       </c>
       <c r="C3" s="1">
-        <v>-113.18418777506101</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -466,7 +466,7 @@
         <v>2.5</v>
       </c>
       <c r="C4" s="1">
-        <v>-86.151923809523794</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -477,7 +477,7 @@
         <v>1.75</v>
       </c>
       <c r="C5" s="1">
-        <v>-110.40537399999999</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -488,7 +488,7 @@
         <v>1.25</v>
       </c>
       <c r="C6" s="1">
-        <v>-114.48599504950499</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -499,7 +499,7 @@
         <v>0.5</v>
       </c>
       <c r="C7" s="1">
-        <v>-113.10111518617499</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -510,7 +510,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>-109.06178964381201</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -521,7 +521,7 @@
         <v>1.25</v>
       </c>
       <c r="C9" s="1">
-        <v>-116.49020243309</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -532,7 +532,7 @@
         <v>2.75</v>
       </c>
       <c r="C10" s="1">
-        <v>-106.963926984127</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -543,7 +543,7 @@
         <v>0.75</v>
       </c>
       <c r="C11" s="1">
-        <v>-80.737155807365397</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -554,7 +554,7 @@
         <v>2.25</v>
       </c>
       <c r="C12" s="1">
-        <v>-120.38490096153799</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -565,7 +565,7 @@
         <v>0.25</v>
       </c>
       <c r="C13" s="1">
-        <v>-63.279407407407398</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -576,7 +576,7 @@
         <v>1.75</v>
       </c>
       <c r="C14" s="1">
-        <v>-96.382221705426304</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -587,7 +587,7 @@
         <v>0.5</v>
       </c>
       <c r="C15" s="1">
-        <v>-58.537404501607703</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -598,7 +598,7 @@
         <v>1.25</v>
       </c>
       <c r="C16" s="1">
-        <v>-73.501289149560094</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -608,8 +608,8 @@
       <c r="B17" s="3">
         <v>0.2</v>
       </c>
-      <c r="C17" s="4">
-        <v>-50</v>
+      <c r="C17" s="1">
+        <v>-100</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -619,7 +619,7 @@
       <c r="B18" s="3">
         <v>2.8</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="1">
         <v>-100</v>
       </c>
     </row>
@@ -630,8 +630,8 @@
       <c r="B19" s="3">
         <v>2.8</v>
       </c>
-      <c r="C19" s="4">
-        <v>-75</v>
+      <c r="C19" s="1">
+        <v>-100</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -641,8 +641,8 @@
       <c r="B20" s="3">
         <v>0.2</v>
       </c>
-      <c r="C20" s="4">
-        <v>-75</v>
+      <c r="C20" s="1">
+        <v>-100</v>
       </c>
     </row>
   </sheetData>
@@ -655,7 +655,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="A1:C20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +684,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>-144.18125014245001</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -695,7 +695,7 @@
         <v>1.25</v>
       </c>
       <c r="C3" s="1">
-        <v>-162.36541222493901</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -706,7 +706,7 @@
         <v>2.5</v>
       </c>
       <c r="C4" s="1">
-        <v>-139.996876190476</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -717,7 +717,7 @@
         <v>1.75</v>
       </c>
       <c r="C5" s="1">
-        <v>-158.876026</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -728,7 +728,7 @@
         <v>1.25</v>
       </c>
       <c r="C6" s="1">
-        <v>-157.586604950495</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -739,7 +739,7 @@
         <v>0.5</v>
       </c>
       <c r="C7" s="1">
-        <v>-158.88013799962701</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -750,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>-160.89980077080901</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -761,7 +761,7 @@
         <v>1.25</v>
       </c>
       <c r="C9" s="1">
-        <v>-160.25819756691001</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -772,7 +772,7 @@
         <v>2.75</v>
       </c>
       <c r="C10" s="1">
-        <v>-147.32767301587299</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -783,7 +783,7 @@
         <v>0.75</v>
       </c>
       <c r="C11" s="1">
-        <v>-156.76464419263499</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -794,7 +794,7 @@
         <v>2.25</v>
       </c>
       <c r="C12" s="1">
-        <v>-159.392299038462</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -805,7 +805,7 @@
         <v>0.25</v>
       </c>
       <c r="C13" s="1">
-        <v>-154.83259259259299</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -816,7 +816,7 @@
         <v>1.75</v>
       </c>
       <c r="C14" s="1">
-        <v>-164.45637829457399</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -827,7 +827,7 @@
         <v>0.5</v>
       </c>
       <c r="C15" s="1">
-        <v>-150.71699549839201</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -838,7 +838,7 @@
         <v>1.25</v>
       </c>
       <c r="C16" s="1">
-        <v>-156.44311085044001</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -848,8 +848,8 @@
       <c r="B17" s="3">
         <v>0.2</v>
       </c>
-      <c r="C17" s="4">
-        <v>-150</v>
+      <c r="C17" s="1">
+        <v>-100</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -859,8 +859,8 @@
       <c r="B18" s="3">
         <v>2.8</v>
       </c>
-      <c r="C18" s="4">
-        <v>-150</v>
+      <c r="C18" s="1">
+        <v>-100</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -870,8 +870,8 @@
       <c r="B19" s="3">
         <v>2.8</v>
       </c>
-      <c r="C19" s="4">
-        <v>-150</v>
+      <c r="C19" s="1">
+        <v>-100</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -882,7 +882,7 @@
         <v>0.2</v>
       </c>
       <c r="C20" s="4">
-        <v>-150</v>
+        <v>-100</v>
       </c>
     </row>
   </sheetData>
@@ -924,7 +924,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>81.562420000000003</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -935,7 +935,7 @@
         <v>1.25</v>
       </c>
       <c r="C3" s="1">
-        <v>82.065600000000003</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -946,7 +946,7 @@
         <v>2.5</v>
       </c>
       <c r="C4" s="1">
-        <v>79.419399999999996</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -957,7 +957,7 @@
         <v>1.75</v>
       </c>
       <c r="C5" s="1">
-        <v>82.673680000000004</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -968,7 +968,7 @@
         <v>1.25</v>
       </c>
       <c r="C6" s="1">
-        <v>80.947000000000003</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -979,7 +979,7 @@
         <v>0.5</v>
       </c>
       <c r="C7" s="1">
-        <v>81.729020140486099</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -990,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>85.027802666749551</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1001,7 +1001,7 @@
         <v>1.25</v>
       </c>
       <c r="C9" s="1">
-        <v>87.102379999999997</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1012,7 +1012,7 @@
         <v>2.75</v>
       </c>
       <c r="C10" s="1">
-        <v>83.119159999999994</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1023,7 +1023,7 @@
         <v>0.75</v>
       </c>
       <c r="C11" s="1">
-        <v>76.595380000000006</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1034,7 +1034,7 @@
         <v>2.25</v>
       </c>
       <c r="C12" s="1">
-        <v>81.372</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1045,7 +1045,7 @@
         <v>0.25</v>
       </c>
       <c r="C13" s="1">
-        <v>74.387659999999997</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1056,7 +1056,7 @@
         <v>1.75</v>
       </c>
       <c r="C14" s="1">
-        <v>80.027199999999993</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1067,7 +1067,7 @@
         <v>0.5</v>
       </c>
       <c r="C15" s="1">
-        <v>74.021940000000001</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1078,7 +1078,7 @@
         <v>1.25</v>
       </c>
       <c r="C16" s="1">
-        <v>74.914240000000007</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1088,8 +1088,8 @@
       <c r="B17" s="3">
         <v>0.2</v>
       </c>
-      <c r="C17" s="4">
-        <v>80</v>
+      <c r="C17" s="1">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1099,8 +1099,8 @@
       <c r="B18" s="3">
         <v>2.8</v>
       </c>
-      <c r="C18" s="4">
-        <v>80</v>
+      <c r="C18" s="1">
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1110,8 +1110,8 @@
       <c r="B19" s="3">
         <v>2.8</v>
       </c>
-      <c r="C19" s="4">
-        <v>80</v>
+      <c r="C19" s="1">
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1121,8 +1121,8 @@
       <c r="B20" s="3">
         <v>0.2</v>
       </c>
-      <c r="C20" s="4">
-        <v>80</v>
+      <c r="C20" s="1">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/aer_writer/aero_map_tables.xlsx
+++ b/aer_writer/aero_map_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nic\Documents\GitHub\Simulation\aer_writer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D9B08B-585C-4C63-AE89-68F65E17F692}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C0D920-25C1-4F81-8826-176833268C3B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{7C7999EA-37B5-484A-9B26-A7F36B4739E3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7C7999EA-37B5-484A-9B26-A7F36B4739E3}"/>
   </bookViews>
   <sheets>
     <sheet name="front" sheetId="4" r:id="rId1"/>
@@ -92,12 +92,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{276EDE51-2175-437B-A7F8-2D1C08A6B2E9}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +443,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -455,7 +454,7 @@
         <v>1.25</v>
       </c>
       <c r="C3" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -466,7 +465,7 @@
         <v>2.5</v>
       </c>
       <c r="C4" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -477,7 +476,7 @@
         <v>1.75</v>
       </c>
       <c r="C5" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -488,7 +487,7 @@
         <v>1.25</v>
       </c>
       <c r="C6" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -499,7 +498,7 @@
         <v>0.5</v>
       </c>
       <c r="C7" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -510,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -521,7 +520,7 @@
         <v>1.25</v>
       </c>
       <c r="C9" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -532,7 +531,7 @@
         <v>2.75</v>
       </c>
       <c r="C10" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -543,7 +542,7 @@
         <v>0.75</v>
       </c>
       <c r="C11" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -554,7 +553,7 @@
         <v>2.25</v>
       </c>
       <c r="C12" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -565,7 +564,7 @@
         <v>0.25</v>
       </c>
       <c r="C13" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -576,7 +575,7 @@
         <v>1.75</v>
       </c>
       <c r="C14" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -587,7 +586,7 @@
         <v>0.5</v>
       </c>
       <c r="C15" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -598,7 +597,7 @@
         <v>1.25</v>
       </c>
       <c r="C16" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -609,7 +608,7 @@
         <v>0.2</v>
       </c>
       <c r="C17" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -620,7 +619,7 @@
         <v>2.8</v>
       </c>
       <c r="C18" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -631,7 +630,7 @@
         <v>2.8</v>
       </c>
       <c r="C19" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -642,7 +641,7 @@
         <v>0.2</v>
       </c>
       <c r="C20" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -655,7 +654,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +683,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -695,7 +694,7 @@
         <v>1.25</v>
       </c>
       <c r="C3" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -706,7 +705,7 @@
         <v>2.5</v>
       </c>
       <c r="C4" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -717,7 +716,7 @@
         <v>1.75</v>
       </c>
       <c r="C5" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -728,7 +727,7 @@
         <v>1.25</v>
       </c>
       <c r="C6" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -739,7 +738,7 @@
         <v>0.5</v>
       </c>
       <c r="C7" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -750,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -761,7 +760,7 @@
         <v>1.25</v>
       </c>
       <c r="C9" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -772,7 +771,7 @@
         <v>2.75</v>
       </c>
       <c r="C10" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -783,7 +782,7 @@
         <v>0.75</v>
       </c>
       <c r="C11" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -794,7 +793,7 @@
         <v>2.25</v>
       </c>
       <c r="C12" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -805,7 +804,7 @@
         <v>0.25</v>
       </c>
       <c r="C13" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -816,7 +815,7 @@
         <v>1.75</v>
       </c>
       <c r="C14" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -827,7 +826,7 @@
         <v>0.5</v>
       </c>
       <c r="C15" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -838,7 +837,7 @@
         <v>1.25</v>
       </c>
       <c r="C16" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -849,7 +848,7 @@
         <v>0.2</v>
       </c>
       <c r="C17" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -860,7 +859,7 @@
         <v>2.8</v>
       </c>
       <c r="C18" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -871,7 +870,7 @@
         <v>2.8</v>
       </c>
       <c r="C19" s="1">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -881,8 +880,8 @@
       <c r="B20" s="3">
         <v>0.2</v>
       </c>
-      <c r="C20" s="4">
-        <v>-100</v>
+      <c r="C20" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -894,7 +893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C913B7CF-1EE9-4A42-9BC7-2F417A08BB47}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
